--- a/corr_tfg.xlsx
+++ b/corr_tfg.xlsx
@@ -2012,13 +2012,13 @@
   <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="B:H I:I"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="0" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="0" width="11.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.53"/>
   </cols>
   <sheetData>
